--- a/Bot_shopee/Data_shopee/data_13_1_1.xlsx
+++ b/Bot_shopee/Data_shopee/data_13_1_1.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -382,526 +382,571 @@
         <v>Fd4QmV src</v>
       </c>
       <c r="C1" t="str">
+        <v>FTxtVW</v>
+      </c>
+      <c r="D1" t="str">
+        <v>customized-overlay-image src</v>
+      </c>
+      <c r="E1" t="str">
+        <v>DgXDzJ</v>
+      </c>
+      <c r="F1" t="str">
+        <v>bPcAVl</v>
+      </c>
+      <c r="G1" t="str">
+        <v>k9JZlv</v>
+      </c>
+      <c r="H1" t="str">
+        <v>OwmBnn</v>
+      </c>
+      <c r="I1" t="str">
+        <v>JVW3E2</v>
+      </c>
+      <c r="J1" t="str">
         <v>hxLzax</v>
       </c>
-      <c r="D1" t="str">
-        <v>DgXDzJ</v>
-      </c>
-      <c r="E1" t="str">
-        <v>k9JZlv</v>
-      </c>
-      <c r="F1" t="str">
-        <v>OwmBnn</v>
-      </c>
-      <c r="G1" t="str">
-        <v>JVW3E2</v>
-      </c>
-      <c r="H1" t="str">
-        <v>bPcAVl</v>
-      </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>bx++ig 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>k9JZlv 2</v>
-      </c>
-      <c r="K1" t="str">
-        <v>customized-overlay-image src</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E2%9C%85-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%84%E0%B8%B1%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%AD%E0%B8%87-%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%96%E0%B8%B9%E0%B8%81-%E2%9C%A8-%E0%B8%A3%E0%B8%AD%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87-1-2-%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-%E2%AD%90-i.600793907.25961772724?sp_atk=d8974748-6745-4f16-a877-e58253f629ec&amp;xptdk=d8974748-6745-4f16-a877-e58253f629ec</v>
+        <v>https://shopee.co.th/Photobook-%E0%B9%82%E0%B8%9F%E0%B9%82%E0%B8%95%E0%B9%89%E0%B8%9A%E0%B8%B8%E0%B9%8A%E0%B8%84%E0%B8%9B%E0%B8%81%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-8x8-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B4%E0%B8%94-%E0%B8%AD%E0%B8%B1%E0%B8%A5%E0%B8%9A%E0%B8%B1%E0%B9%89%E0%B8%A1%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%AD%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%80%E0%B8%A7%E0%B9%87%E0%B8%9A-40-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.7090256.7601106790?sp_atk=46df6bdc-ccd8-442c-b5dd-c17d4967b746&amp;xptdk=46df6bdc-ccd8-442c-b5dd-c17d4967b746</v>
       </c>
       <c r="B2" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lr66kn9h9zla66_tn</v>
+        <v>https://down-th.img.susercontent.com/file/696ed59949f7b12fc232f4e36614df38_tn</v>
       </c>
       <c r="C2" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>-73%</v>
       </c>
       <c r="D2" t="str">
-        <v>✅ สติกเกอร์ไลน์ คัลแลน&amp;พี่จอง มีเสียง ราคาถูก ✨ รอจัดส่ง 1-2 วันหลังสั่งซื้อ ส่งเป็นของขวัญ  ⭐</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E2" t="str">
-        <v>40</v>
+        <v>Photobook: โฟโต้บุ๊คปกแข็ง 8x8 นิ้ว ของขวัญวันเกิด อัลบั้มรูป แต่งเองบนเว็บ, 40 หน้า</v>
       </c>
       <c r="F2" t="str">
-        <v>ขายแล้ว 24 ชิ้น</v>
+        <v>฿1,600</v>
       </c>
       <c r="G2" t="str">
-        <v>จังหวัดพระนครศรีอยุธยา</v>
+        <v>439</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>ขายแล้ว 485 ชิ้น</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J2" t="str">
         <v/>
       </c>
       <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%81%E0%B8%97%E0%B8%A1.%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B9%80%E0%B8%81%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%B5%E0%B9%89%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%81%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%B5%E0%B9%89%E0%B8%AA%E0%B8%95%E0%B8%B9%E0%B8%A5-35x35x50cm-%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%87255kg-%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%8B%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5-chairs-stools-i.935976006.25111186813?sp_atk=2535f17d-cf77-4757-bd27-c6481ec4c5c5&amp;xptdk=2535f17d-cf77-4757-bd27-c6481ec4c5c5</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%81%E0%B8%97%E0%B8%A1.%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B9%80%E0%B8%81%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%B5%E0%B9%89%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%81%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%B5%E0%B9%89%E0%B8%AA%E0%B8%95%E0%B8%B9%E0%B8%A5-35x35x50cm-%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%87255kg-%E0%B9%82%E0%B8%A1%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%8B%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%B1%E0%B8%99%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5-chairs-stools-i.935976006.25111186813?sp_atk=88c4eca9-cda3-4b4e-83d4-e4ba242812c8&amp;xptdk=88c4eca9-cda3-4b4e-83d4-e4ba242812c8</v>
       </c>
       <c r="B3" t="str">
         <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lr726oy950ild8_tn</v>
       </c>
       <c r="C3" t="str">
+        <v>-75%</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>🔥กทม.ส่ง🔥เก้าอี้พลาสติก เก้าอี้สตูล 35x35x50cm แบริ่ง255kg โมเดิร์นและเรียบง่าย ซ้อนได้ สีสันสดใส แข็งแรง ทนทาน มีให้เลือกหลายสี chairs&amp;stools</v>
+      </c>
+      <c r="F3" t="str">
+        <v>-</v>
+      </c>
+      <c r="G3" t="str">
+        <v>222</v>
+      </c>
+      <c r="H3" t="str">
+        <v>ขายแล้ว 87 ชิ้น</v>
+      </c>
+      <c r="I3" t="str">
+        <v>จังหวัดสมุทรปราการ</v>
+      </c>
+      <c r="J3" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D3" t="str">
-        <v>🔥กทม.ส่ง🔥เก้าอี้พลาสติก เก้าอี้สตูล 35x35x50cm แบริ่ง255kg โมเดิร์นและเรียบง่าย ซ้อนได้ สีสันสดใส แข็งแรง ทนทาน มีให้เลือกหลายสี chairs&amp;stools</v>
-      </c>
-      <c r="E3" t="str">
-        <v>222</v>
-      </c>
-      <c r="F3" t="str">
-        <v>ขายแล้ว 83 ชิ้น</v>
-      </c>
-      <c r="G3" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="H3" t="str">
-        <v>-</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <v>฿</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <v>252</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%87%E0%B8%94%E0%B8%88%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B8%E0%B8%93-Major-Voucher-200-THB-GWP--i.164729718.22663295198?sp_atk=8a06f08d-8311-47aa-bfc6-7599c382d1cb&amp;xptdk=8a06f08d-8311-47aa-bfc6-7599c382d1cb</v>
+        <v>https://shopee.co.th/Package-10-500-THB-for-3.3-Mega-Campaign-i.175707560.24459123864?sp_atk=4e8d5407-a9d1-496c-a3a1-11e03284c957&amp;xptdk=4e8d5407-a9d1-496c-a3a1-11e03284c957</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lphu9ktje0un0c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lqmypzvifzz82a_tn</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>[สินค้าสมนาคุณงดจำหน่าย] สินค้าสมนาคุณ Major Voucher 200 THB [GWP]</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>99,999</v>
+        <v>Package 10,500 THB for 3.3 Mega Campaign</v>
       </c>
       <c r="F4" t="str">
-        <v>ขายแล้ว 30 ชิ้น</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>10,500</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>ขายแล้ว 4 ชิ้น</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-8ebdd990fd3e438d3171bc0e9098362c</v>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/FMCG-Category-Campaign-Package-Package-500-THB-i.175707560.22033360979?sp_atk=0cd25ff8-435f-4a16-a540-407ce46f7cee&amp;xptdk=0cd25ff8-435f-4a16-a540-407ce46f7cee</v>
+        <v>https://shopee.co.th/Photobook-%E0%B9%82%E0%B8%9F%E0%B9%82%E0%B8%95%E0%B9%89%E0%B8%9A%E0%B8%B8%E0%B9%8A%E0%B8%84%E0%B8%97%E0%B8%B3%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%9B%E0%B8%81%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-6x6-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%A7%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%99%E0%B9%8C-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%81%E0%B8%9F%E0%B8%99-%E0%B8%97%E0%B8%B3%E0%B9%80%E0%B8%AD%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%81%E0%B8%AD%E0%B8%9B-20-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.7090256.2122582319?sp_atk=5019fb47-e057-438b-8deb-97e8b69e1e26&amp;xptdk=5019fb47-e057-438b-8deb-97e8b69e1e26</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-j7x1y3mjdvov2d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/72d036ed26fcd63c063792dac8cc2bf4_tn</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>-83%</v>
       </c>
       <c r="D5" t="str">
-        <v>FMCG Category Campaign Package - Package 500 THB</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E5" t="str">
-        <v>500</v>
+        <v>Photobook: โฟโต้บุ๊คทำง่าย ปกแข็ง 6x6 ของขวัญวาเลนไทน์ ของขวัญให้แฟน - ทำเองบนแอป, 20 หน้า</v>
       </c>
       <c r="F5" t="str">
-        <v>ขายแล้ว 34.3พัน ชิ้น</v>
+        <v>฿590</v>
       </c>
       <c r="G5" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>99</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>ขายแล้ว 80.5พัน ชิ้น</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/-E-voucher-Cockpit-%E0%B8%9A%E0%B8%B8%E0%B8%9F%E0%B9%80%E0%B8%9F%E0%B8%95%E0%B9%8C%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%A5%E0%B8%A1%E0%B8%A2%E0%B8%B2%E0%B8%87%E0%B9%84%E0%B8%99%E0%B9%82%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%88%E0%B8%99-2-%E0%B8%9B%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88-COCKPIT-89-%E0%B8%AA%E0%B8%B2%E0%B8%82%E0%B8%B2-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%95%E0%B8%A3%E0%B8%A7%E0%B8%88%E0%B9%80%E0%B8%8A%E0%B9%87%E0%B8%81%E0%B8%A3%E0%B8%96%E0%B8%A2%E0%B8%99%E0%B8%95%E0%B9%8C%E0%B9%80%E0%B8%9A%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%95%E0%B9%89%E0%B8%99!-i.237210903.9607263531?sp_atk=ae4ffb45-67d2-4eb9-b7d0-97810351b697&amp;xptdk=ae4ffb45-67d2-4eb9-b7d0-97810351b697</v>
+        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-%E0%B9%82%E0%B8%A5%E0%B8%95%E0%B8%B1%E0%B8%AA-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-100-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.53009838.20749646290?sp_atk=876f707d-1175-49c4-8586-1fa724dcfd68&amp;xptdk=876f707d-1175-49c4-8586-1fa724dcfd68</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22090-fh3vypv1izhvf6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22090-7qgfgeq7vxhv3d_tn</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>[E-voucher] Cockpit บุฟเฟต์เติม/เปลี่ยนลมยางไนโตรเจน 2 ปี ที่ COCKPIT 89 สาขา แถมฟรี บริการตรวจเช็กรถยนต์เบื้องต้น!</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E6" t="str">
-        <v>9</v>
+        <v>บัตรของขวัญ โลตัส มูลค่า 100 บาท</v>
       </c>
       <c r="F6" t="str">
-        <v>ขายแล้ว 106.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>105</v>
       </c>
       <c r="H6" t="str">
-        <v>฿200</v>
+        <v>ขายแล้ว 1.7พัน ชิ้น</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J6" t="str">
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/Photobook-%E0%B9%82%E0%B8%9F%E0%B9%82%E0%B8%95%E0%B9%89%E0%B8%9A%E0%B8%B8%E0%B9%8A%E0%B8%84%E0%B8%9B%E0%B8%81%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-8x8-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B4%E0%B8%94-%E0%B8%AD%E0%B8%B1%E0%B8%A5%E0%B8%9A%E0%B8%B1%E0%B9%89%E0%B8%A1%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%AD%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%80%E0%B8%A7%E0%B9%87%E0%B8%9A-40-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.7090256.7601106790?sp_atk=4bfd2b45-193b-4f09-89bd-904c484046a6&amp;xptdk=4bfd2b45-193b-4f09-89bd-904c484046a6</v>
+        <v>https://shopee.co.th/FMCG-Category-Campaign-Package-Package-500-THB-i.175707560.22033360979?sp_atk=5bf21417-4aab-46c3-b938-cb154ee26b29&amp;xptdk=5bf21417-4aab-46c3-b938-cb154ee26b29</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/696ed59949f7b12fc232f4e36614df38_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-j7x1y3mjdvov2d_tn</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>Photobook: โฟโต้บุ๊คปกแข็ง 8x8 นิ้ว ของขวัญวันเกิด อัลบั้มรูป แต่งเองบนเว็บ, 40 หน้า</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>439</v>
+        <v>FMCG Category Campaign Package - Package 500 THB</v>
       </c>
       <c r="F7" t="str">
-        <v>ขายแล้ว 485 ชิ้น</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>500</v>
       </c>
       <c r="H7" t="str">
-        <v>฿1,600</v>
+        <v>ขายแล้ว 34.3พัน ชิ้น</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J7" t="str">
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-8ebdd990fd3e438d3171bc0e9098362c</v>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B9%80%E0%B8%9E%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B9%81%E0%B8%A5%E0%B8%81%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-i.5965540.10694389723?sp_atk=f28cd00e-0f62-4c63-9299-3978e7b40f01&amp;xptdk=f28cd00e-0f62-4c63-9299-3978e7b40f01</v>
+        <v>https://shopee.co.th/Photobook-%E0%B9%82%E0%B8%9F%E0%B9%82%E0%B8%95%E0%B9%89%E0%B8%9A%E0%B8%B8%E0%B9%8A%E0%B8%84%E0%B8%9B%E0%B8%81%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-8x6-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%81%E0%B8%9F%E0%B8%99-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%9B%E0%B8%B1%E0%B8%88%E0%B8%89%E0%B8%B4%E0%B8%A1-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%AD%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%80%E0%B8%A7%E0%B9%87%E0%B8%9A-40-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.7090256.4301107635?sp_atk=6b0d70ca-e7c5-49f3-9625-1b1179cf3525&amp;xptdk=6b0d70ca-e7c5-49f3-9625-1b1179cf3525</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/e2f98cf72894f0ad549ab109dc1f79b8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5881761bc85270ca13a7143be44bc5e5_tn</v>
       </c>
       <c r="C8" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>-72%</v>
       </c>
       <c r="D8" t="str">
-        <v>สะสมเพื่อแลกสติ๊กเกอร์ ธีม อิโมจิ เมโลดี้ ส่งเป็นของขวัญ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>Photobook: โฟโต้บุ๊คปกแข็ง 8x6 ของขวัญให้แฟน ของขวัญปัจฉิม - แต่งเองบนเว็บ, 40 หน้า</v>
       </c>
       <c r="F8" t="str">
-        <v>ขายแล้ว 23.7พัน ชิ้น</v>
+        <v>฿1,500</v>
       </c>
       <c r="G8" t="str">
-        <v>จังหวัดราชบุรี</v>
+        <v>419</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>ขายแล้ว 2.7พัน ชิ้น</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J8" t="str">
         <v/>
       </c>
       <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/1%E0%B8%BF-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B8%94%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%9D%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B3%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87-i.1067019576.23961293866?sp_atk=35075dc9-3199-4e30-8586-c1eb2f9abaeb&amp;xptdk=35075dc9-3199-4e30-8586-c1eb2f9abaeb</v>
+        <v>https://shopee.co.th/PlayStation-PSN-Gift-Card-1-000-THB-%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-PS4-PS5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-CODE-AUTO-%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5--i.399706256.19882063222?sp_atk=833c4b39-5cf3-4118-832a-3876907a1891&amp;xptdk=833c4b39-5cf3-4118-832a-3876907a1891</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-loc9r25dcahv05_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-ljffc8es6x2gf2_tn</v>
       </c>
       <c r="C9" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v>1฿, เฉพาะการเติมเงินค่าต่าง, โปรดยืนยันกับฝ่ายบริการลูกค้าก่อนทำการจ่ายเงิน, การจ่ายเงินโดยไม่ได้ยืนยันจะไม่ถูกต้อง</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>1</v>
+        <v>PlayStation PSN Gift Card 1,000 THB [ไทย] [บัตรเติมเงิน] PS4/PS5 [ส่งรหัส CODE AUTO ทันที]</v>
       </c>
       <c r="F9" t="str">
-        <v>ขายแล้ว 976 ชิ้น</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>1,090</v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>ขายแล้ว 68 ชิ้น</v>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="J9" t="str">
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%F0%9F%8E%81%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E2%9D%8C%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-i.754786532.17256946563?sp_atk=dbd56d23-1840-4d7b-b160-a38481af2e8e&amp;xptdk=dbd56d23-1840-4d7b-b160-a38481af2e8e</v>
+        <v>https://shopee.co.th/-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%87%E0%B8%94%E0%B8%88%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B8%E0%B8%93-Major-Voucher-200-THB-GWP--i.164729718.22663295198?sp_atk=50932062-1dc4-417c-9c36-111eb70c8585&amp;xptdk=50932062-1dc4-417c-9c36-111eb70c8585</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-ue59rkk579iv8b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lphu9ktje0un0c_tn</v>
       </c>
       <c r="C10" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>สติกเกอร์ไลน์ ธีม อิโมจิ เมโลดี้ 🎁ส่งเป็นของขวัญ❌ไม่ส่งเป็นเหรียญ</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>1</v>
+        <v>[สินค้าสมนาคุณงดจำหน่าย] สินค้าสมนาคุณ Major Voucher 200 THB [GWP]</v>
       </c>
       <c r="F10" t="str">
-        <v>ขายแล้ว 11.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>99,999</v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>ขายแล้ว 30 ชิ้น</v>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J10" t="str">
         <v/>
       </c>
       <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/-E-Coupon-%E0%B8%9E%E0%B8%8D%E0%B8%B2%E0%B9%84%E0%B8%97-ALL-YOU-CAN-CHECK-PLUS-%E0%B8%95%E0%B8%A3%E0%B8%A7%E0%B8%88%E0%B9%80%E0%B8%9E%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%9C%E0%B8%A5-%E0%B8%95%E0%B8%A5%E0%B8%AD%E0%B8%94-1-%E0%B8%9B%E0%B8%B5-%E0%B9%80%E0%B8%9E%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%94%E0%B8%B5-%E0%B8%97%E0%B8%B1%E0%B9%89%E0%B8%87%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%88%E0%B8%B4%E0%B8%95-i.379804630.22761671207?sp_atk=68915ae0-4f7d-47bd-b01e-dc5949816627&amp;xptdk=68915ae0-4f7d-47bd-b01e-dc5949816627</v>
+        <v>https://shopee.co.th/1%E0%B8%BF-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B8%94%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%9D%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B3%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87-i.1067019576.23961293866?sp_atk=498fae39-ea6a-45d5-b63f-3e7c7176b1c0&amp;xptdk=498fae39-ea6a-45d5-b63f-3e7c7176b1c0</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-looyzapcwev13b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-loc9r25dcahv05_tn</v>
       </c>
       <c r="C11" t="str">
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>[E-Coupon] พญาไท -  ALL YOU CAN CHECK PLUS ตรวจเพื่อปรับ พร้อมติดตามผล ตลอด 1 ปี เพื่อเป้าหมายสุขภาพดี ทั้งร่างกายและจิต</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E11" t="str">
-        <v>24,500</v>
+        <v>1฿, เฉพาะการเติมเงินค่าต่าง, โปรดยืนยันกับฝ่ายบริการลูกค้าก่อนทำการจ่ายเงิน, การจ่ายเงินโดยไม่ได้ยืนยันจะไม่ถูกต้อง</v>
       </c>
       <c r="F11" t="str">
-        <v>ขายแล้ว 47 ชิ้น</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H11" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 976 ชิ้น</v>
       </c>
       <c r="I11" t="str">
-        <v>฿</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J11" t="str">
-        <v>27,500</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/%E3%80%90AS-NA-EU%E3%80%91Genshin-Impa'ct-%E2%9E%80-i.365737320.24900467858?sp_atk=90cb3bd9-583d-4495-9a99-e24e14888885&amp;xptdk=90cb3bd9-583d-4495-9a99-e24e14888885</v>
+        <v>https://shopee.co.th/(%E0%B8%A3%E0%B8%9A%E0%B8%81%E0%B8%A7%E0%B8%99%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD)-PSN-300-%E0%B8%9A%E0%B8%B2%E0%B8%97-(digital-code-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-%E0%B8%AA%E0%B9%82%E0%B8%95%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%97%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B9%89%E0%B8%99)-i.80542654.12699568640?sp_atk=31355f5a-0749-462f-a3f3-671fbed8b351&amp;xptdk=31355f5a-0749-462f-a3f3-671fbed8b351</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lpy71bdh5otg1f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-li73j0dz9pjl6d_tn</v>
       </c>
       <c r="C12" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>【AS/NA/EU】Genshin Impa'ct ➀</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>102</v>
+        <v>(รบกวนอ่านรายละเอียดก่อนซื้อ) PSN 300 บาท (digital code สำหรับ สโตร์ไทยเท่านั้น)</v>
       </c>
       <c r="F12" t="str">
-        <v>ขายแล้ว 2.1พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>จังหวัดชลบุรี</v>
+        <v>325</v>
       </c>
       <c r="H12" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 790 ชิ้น</v>
       </c>
       <c r="I12" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J12" t="str">
-        <v>510</v>
+        <v/>
       </c>
       <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E3%80%90AS-NA-EU%E3%80%91Genshin-Impa'ct-%E2%9E%82-i.365737320.23085987414?sp_atk=070500ec-e854-4fa9-a969-bebd3cd9fd6c&amp;xptdk=070500ec-e854-4fa9-a969-bebd3cd9fd6c</v>
+        <v>https://shopee.co.th/Cluster-Campaign-Package-Package-500-THB-i.175707560.22733354961?sp_atk=987a1b48-000b-4224-8d29-50b04a8bf400&amp;xptdk=987a1b48-000b-4224-8d29-50b04a8bf400</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lpy71bdh8hyca8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-z0gv4i8cdvov58_tn</v>
       </c>
       <c r="C13" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D13" t="str">
-        <v>【AS/NA/EU】Genshin Impa'ct ➂</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>60</v>
+        <v>Cluster Campaign Package - Package 500 THB</v>
       </c>
       <c r="F13" t="str">
-        <v>ขายแล้ว 879 ชิ้น</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>จังหวัดชลบุรี</v>
+        <v>500</v>
       </c>
       <c r="H13" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 133พัน ชิ้น</v>
       </c>
       <c r="I13" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J13" t="str">
-        <v>300</v>
+        <v/>
       </c>
       <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-%E0%B9%82%E0%B8%A5%E0%B8%95%E0%B8%B1%E0%B8%AA-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-100-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.53009838.20749646290?sp_atk=5d924118-d54d-42c3-83dd-478b1fc0150d&amp;xptdk=5d924118-d54d-42c3-83dd-478b1fc0150d</v>
+        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-True-1000-THB-i.326412522.23960457826?sp_atk=4ff1ef51-0044-48f5-a140-27af18de39b9&amp;xptdk=4ff1ef51-0044-48f5-a140-27af18de39b9</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22090-7qgfgeq7vxhv3d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lntnc6zxpwz419_tn</v>
       </c>
       <c r="C14" t="str">
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>บัตรของขวัญ โลตัส มูลค่า 100 บาท</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>105</v>
+        <v>บัตรเติมมือถือ True 1000 THB</v>
       </c>
       <c r="F14" t="str">
-        <v>ขายแล้ว 1.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1,150</v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>ขายแล้ว 46 ชิ้น</v>
       </c>
       <c r="I14" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/Cluster-Campaign-Package-Package-500-THB-i.175707560.22733354961?sp_atk=24c8e50d-2bfd-4888-8a13-7374101f03cb&amp;xptdk=24c8e50d-2bfd-4888-8a13-7374101f03cb</v>
+        <v>https://shopee.co.th/PlayStation-PSN-500-%E0%B8%9A%E0%B8%B2%E0%B8%97-Code-(TH)-i.274595810.20466680158?sp_atk=fc0d5cc0-4257-48ef-8b64-0c38972b6db9&amp;xptdk=fc0d5cc0-4257-48ef-8b64-0c38972b6db9</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-z0gv4i8cdvov58_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-5losbhbhynkvad_tn</v>
       </c>
       <c r="C15" t="str">
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>Cluster Campaign Package - Package 500 THB</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>500</v>
+        <v>PlayStation : PSN 500 บาท Code (TH)</v>
       </c>
       <c r="F15" t="str">
-        <v>ขายแล้ว 133พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>540</v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>ขายแล้ว 2.1พัน ชิ้น</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/Facebook-Ads-by-Shopee-BAU-Campaign-i.175707560.22460365593?sp_atk=15e7c751-745d-449e-a03e-f188ecf2f564&amp;xptdk=15e7c751-745d-449e-a03e-f188ecf2f564</v>
+        <v>https://shopee.co.th/Facebook-Ads-by-Shopee-BAU-Campaign-i.175707560.22460365593?sp_atk=859486b8-e227-4d19-959f-88fc7a1964f2&amp;xptdk=859486b8-e227-4d19-959f-88fc7a1964f2</v>
       </c>
       <c r="B16" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lnrz31zvk21z29_tn</v>
@@ -910,1602 +955,1740 @@
         <v/>
       </c>
       <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
         <v>Facebook Ads by Shopee - BAU Campaign</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
         <v>1,070</v>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
         <v>ขายแล้ว 1.3พัน ชิ้น</v>
       </c>
-      <c r="G16" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
       <c r="I16" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J16" t="str">
         <v/>
       </c>
       <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8-10-%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-5-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.233239802.20001090774?sp_atk=286d806e-377a-4ef0-9f9f-09b9e691c395&amp;xptdk=286d806e-377a-4ef0-9f9f-09b9e691c395</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B9%80%E0%B8%9E%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B9%81%E0%B8%A5%E0%B8%81%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-i.5965540.10694389723?sp_atk=251be226-ee38-407d-9219-9325a22a4ba4&amp;xptdk=251be226-ee38-407d-9219-9325a22a4ba4</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/8a3aaea14fa334602d3f84f594dce0c1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e2f98cf72894f0ad549ab109dc1f79b8_tn</v>
       </c>
       <c r="C17" t="str">
         <v/>
       </c>
       <c r="D17" t="str">
-        <v>สติ๊กเกอร์ไลน์ต่างประเทศ 10 เหรียญ ราคา 5 บาท</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>6</v>
+        <v>สะสมเพื่อแลกสติ๊กเกอร์ ธีม อิโมจิ เมโลดี้ ส่งเป็นของขวัญ</v>
       </c>
       <c r="F17" t="str">
-        <v>ขายแล้ว 1.1พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>จังหวัดพระนครศรีอยุธยา</v>
+        <v>1</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>ขายแล้ว 23.7พัน ชิ้น</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>จังหวัดราชบุรี</v>
       </c>
       <c r="J17" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/PlayStation-PSN-Gift-Card-1-000-THB-%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-PS4-PS5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-CODE-AUTO-%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5--i.399706256.19882063222?sp_atk=150df88d-6071-4401-a383-5d7020aec46b&amp;xptdk=150df88d-6071-4401-a383-5d7020aec46b</v>
+        <v>https://shopee.co.th/%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%B1%E0%B8%9E%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94%E0%B9%82%E0%B8%A3%E0%B8%87%E0%B8%99%E0%B8%B2-%E0%B8%A2%E0%B8%B8%E0%B9%89%E0%B8%87%E0%B8%89%E0%B8%B2%E0%B8%87-Hay-Day-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B8%94%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD-i.434785898.19795800461?sp_atk=a3bbd924-1cd2-4287-adcf-b327699aa60d&amp;xptdk=a3bbd924-1cd2-4287-adcf-b327699aa60d</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-ljffc8es6x2gf2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lp1z93akop61fb_tn</v>
       </c>
       <c r="C18" t="str">
         <v/>
       </c>
       <c r="D18" t="str">
-        <v>PlayStation PSN Gift Card 1,000 THB [ไทย] [บัตรเติมเงิน] PS4/PS5 [ส่งรหัส CODE AUTO ทันที]</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>1,090</v>
+        <v>ของอัพเกรดโรงนา ยุ้งฉาง  Hay Day โปรดอ่านรายละเอียดก่อนสั่งซื้อ</v>
       </c>
       <c r="F18" t="str">
-        <v>ขายแล้ว 68 ชิ้น</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>3</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>ขายแล้ว 319 ชิ้น</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J18" t="str">
         <v/>
       </c>
       <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/Facebook-Ads-by-Shopee-NB-Campaign-i.175707560.23885864786?sp_atk=e3ee538f-8103-4906-b8f1-d338d275bd44&amp;xptdk=e3ee538f-8103-4906-b8f1-d338d275bd44</v>
+        <v>https://shopee.co.th/PlayStation-PSN-1000-%E0%B8%9A%E0%B8%B2%E0%B8%97-Code-(TH)-i.274595810.15695534663?sp_atk=53211803-7438-4bce-9b64-4f95b80abf8b&amp;xptdk=53211803-7438-4bce-9b64-4f95b80abf8b</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lnrz31zvpobr5f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-8n8mkwpkynkv48_tn</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>Facebook Ads by Shopee - NB Campaign</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>1,070</v>
+        <v>PlayStation : PSN 1000 บาท Code (TH)</v>
       </c>
       <c r="F19" t="str">
-        <v>ขายแล้ว 1.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1,080</v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>ขายแล้ว 1.5พัน ชิ้น</v>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/WeTV-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-VIP-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99-3-%E0%B8%A7%E0%B8%B1%E0%B8%99-i.181780557.7205437719?sp_atk=c4db695c-dc76-4302-9faf-2a6b00bcbf72&amp;xptdk=c4db695c-dc76-4302-9faf-2a6b00bcbf72</v>
+        <v>https://shopee.co.th/PlayStation-PSN-300-%E0%B8%9A%E0%B8%B2%E0%B8%97-Code-(TH)-i.274595810.4462111628?sp_atk=57a13b5a-1462-4b60-a0c2-c375f1346e23&amp;xptdk=57a13b5a-1462-4b60-a0c2-c375f1346e23</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lpadvykl76g9c9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/40b9c51579d54fe9763006c32645c332_tn</v>
       </c>
       <c r="C20" t="str">
         <v/>
       </c>
       <c r="D20" t="str">
-        <v>WeTV รหัส VIP สำหรับใช้งาน 3 วัน</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>19</v>
+        <v>PlayStation : PSN 300 บาท Code (TH)</v>
       </c>
       <c r="F20" t="str">
-        <v>ขายแล้ว 87.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>324</v>
       </c>
       <c r="H20" t="str">
-        <v>฿28</v>
+        <v>ขายแล้ว 12.8พัน ชิ้น</v>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/-OS-LT-Shopee-Mall-Acceleration-Program-i.175707560.15495817020?sp_atk=a2c3d654-24f0-4191-8932-102817b47c9c&amp;xptdk=a2c3d654-24f0-4191-8932-102817b47c9c</v>
+        <v>https://shopee.co.th/Photobook-%E0%B8%9B%E0%B8%8F%E0%B8%B4%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B9%89%E0%B8%87%E0%B9%82%E0%B8%95%E0%B9%8A%E0%B8%B0-%E0%B8%97%E0%B8%B3%E0%B8%94%E0%B9%89%E0%B8%A7%E0%B8%A2%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%B8%E0%B8%93-6x8-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B4%E0%B8%94-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%A3%E0%B8%AD%E0%B8%9A-28-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.7090256.6401107145?sp_atk=dbf34c6e-b8c6-4978-b244-9510453a0c3c&amp;xptdk=dbf34c6e-b8c6-4978-b244-9510453a0c3c</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-paexofr944kv25_tn</v>
+        <v>https://down-th.img.susercontent.com/file/3ede3bbb654df89e3b82398f4c3c1056_tn</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>-47%</v>
       </c>
       <c r="D21" t="str">
-        <v>[OS-LT] Shopee Mall  Acceleration Program</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E21" t="str">
-        <v>5,000</v>
+        <v>Photobook: ปฏิทินตั้งโต๊ะ ทำด้วยรูปของคุณ 6x8 นิ้ว ของขวัญวันเกิด ของขวัญวันครบรอบ, 28 หน้า</v>
       </c>
       <c r="F21" t="str">
-        <v>ขายแล้ว 420 ชิ้น</v>
+        <v>฿600</v>
       </c>
       <c r="G21" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>319</v>
       </c>
       <c r="H21" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 9.2พัน ชิ้น</v>
       </c>
       <c r="I21" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J21" t="str">
-        <v>15,000</v>
+        <v/>
       </c>
       <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B9%80%E0%B8%AE%E0%B8%99%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B8%AA%E0%B8%B2%E0%B8%A7%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%AA%E0%B8%99%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-12-%E0%B8%9A%E0%B8%B2%E0%B8%97%E2%9D%97%EF%B8%8F%E2%9C%A8-i.22444861.21463501201?sp_atk=1bdd31d1-9bec-4156-8775-047143848224&amp;xptdk=1bdd31d1-9bec-4156-8775-047143848224</v>
+        <v>https://shopee.co.th/PlayStation-PSN-Gift-Card-2-000-THB-%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-PS4-PS5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-CODE-AUTO-%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5--i.399706256.20682067814?sp_atk=adfc0231-98c3-4f6b-a8c6-96b6d936ff6d&amp;xptdk=adfc0231-98c3-4f6b-a8c6-96b6d936ff6d</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lq274ki7yviy9c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-ljffc8es9q7cbd_tn</v>
       </c>
       <c r="C22" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v>สติกเกอร์ไลน์ - เฮนน่า สาวน้อยแสนน่ารัก 12 บาท❗️✨</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>12</v>
+        <v>PlayStation PSN Gift Card 2,000 THB [ไทย] [บัตรเติมเงิน] PS4/PS5 [ส่งรหัส CODE AUTO ทันที]</v>
       </c>
       <c r="F22" t="str">
-        <v>ขายแล้ว 163 ชิ้น</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>จังหวัดสมุทรสาคร</v>
+        <v>2,180</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>ขายแล้ว 66 ชิ้น</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="J22" t="str">
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/(%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B9%82%E0%B8%8B%E0%B8%94%E0%B8%B2)-%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%A1%E0%B8%99%E0%B8%B9%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B9%82%E0%B8%8B%E0%B8%94%E0%B8%B2-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-A4-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%83%E0%B8%AA%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-i.26544836.18124976178?sp_atk=8122e8bd-7ae7-4d9c-bcb1-f9440210dbe8&amp;xptdk=8122e8bd-7ae7-4d9c-bcb1-f9440210dbe8</v>
+        <v>https://shopee.co.th/Facebook-Ads-by-Shopee-NB-Campaign-i.175707560.23885864786?sp_atk=20d26d8d-e564-4aef-b741-dc4cff9ca5f0&amp;xptdk=20d26d8d-e564-4aef-b741-dc4cff9ca5f0</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-lgp1shrqwq3s0b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lnrz31zvpobr5f_tn</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>(น้ำผลไม้/โซดา) ป้ายเมนูน้ำผลไม้ โซดา น้ำผลไม้ปั่น ขนาด A4 เคลือบใสแข็ง</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>62</v>
+        <v>Facebook Ads by Shopee - NB Campaign</v>
       </c>
       <c r="F23" t="str">
-        <v>ขายแล้ว 1.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>จังหวัดสตูล</v>
+        <v>1,070</v>
       </c>
       <c r="H23" t="str">
-        <v>฿120</v>
+        <v>ขายแล้ว 1.7พัน ชิ้น</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J23" t="str">
         <v/>
       </c>
       <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/FMCG-Clubs-Campaign-Package-100-THB-i.175707560.21667572217?sp_atk=738dad4a-745d-4c49-a639-feac8ee65cbd&amp;xptdk=738dad4a-745d-4c49-a639-feac8ee65cbd</v>
+        <v>https://shopee.co.th/1%E0%B8%BF-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B8%94%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%9D%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B3%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87-i.1092528171.17996806082?sp_atk=e60543b4-7cba-48af-88c7-0f693b35152c&amp;xptdk=e60543b4-7cba-48af-88c7-0f693b35152c</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-4pr6q6tc7tkv6f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lom73pdcm7z34a_tn</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>FMCG Clubs Campaign - Package 100 THB</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>100</v>
+        <v>1฿, เฉพาะการเติมเงินค่าต่าง, โปรดยืนยันกับฝ่ายบริการลูกค้าก่อนทำการจ่ายเงิน, การจ่ายเงินโดยไม่ได้ยืนยันจะไม่ถูกต้อง</v>
       </c>
       <c r="F24" t="str">
-        <v>ขายแล้ว 347.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>ขายแล้ว 180 ชิ้น</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J24" t="str">
         <v/>
       </c>
       <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/1%E0%B8%BF-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B8%94%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%9D%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B3%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%B7%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%99%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87-i.1092528171.17996806082?sp_atk=31b33653-20ae-4265-bb27-9e105d3706b2&amp;xptdk=31b33653-20ae-4265-bb27-9e105d3706b2</v>
+        <v>https://shopee.co.th/PlayStation-PSN-2000-%E0%B8%9A%E0%B8%B2%E0%B8%97-Code-(TH)-i.274595810.6462110137?sp_atk=777129b4-c966-4fba-8f6a-45f3ac0385a4&amp;xptdk=777129b4-c966-4fba-8f6a-45f3ac0385a4</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lom73pdcm7z34a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/c7a822f0605142fe00e6fd20926812bd_tn</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>1฿, เฉพาะการเติมเงินค่าต่าง, โปรดยืนยันกับฝ่ายบริการลูกค้าก่อนทำการจ่ายเงิน, การจ่ายเงินโดยไม่ได้ยืนยันจะไม่ถูกต้อง</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>1</v>
+        <v>PlayStation : PSN 2000 บาท Code (TH)</v>
       </c>
       <c r="F25" t="str">
-        <v>ขายแล้ว 180 ชิ้น</v>
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>2,160</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>ขายแล้ว 2.2พัน ชิ้น</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8-5-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%82%E0%B8%A2%E0%B8%B1%E0%B8%9A%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%96%E0%B8%B2%E0%B8%A7%E0%B8%A3-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AB%E0%B8%B2%E0%B8%A2-i.143769517.23066280847?sp_atk=02cb407c-c341-450e-872a-7dd57914ac00&amp;xptdk=02cb407c-c341-450e-872a-7dd57914ac00</v>
+        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%81%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%A5-Big-C-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%81%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%94-i.53009838.15496773719?sp_atk=2d6d2d72-f21b-4752-927f-40a97937db65&amp;xptdk=2d6d2d72-f21b-4752-927f-40a97937db65</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul9-lg2r3e2nhr0v06_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-qis9pn0160nv6b_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>สติกเกอร์ไลน์ต่างประเทศ 5 บาท ขยับได้ ใช้ได้ถาวร ไม่หาย</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E26" t="str">
-        <v>5</v>
+        <v>บัตรกำนัล Big C ใช้แทนเงินสด</v>
       </c>
       <c r="F26" t="str">
-        <v>ขายแล้ว 567 ชิ้น</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>105</v>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>ขายแล้ว 603 ชิ้น</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J26" t="str">
         <v/>
       </c>
       <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/(%E0%B8%A3%E0%B8%9A%E0%B8%81%E0%B8%A7%E0%B8%99%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD)-PSN-300-%E0%B8%9A%E0%B8%B2%E0%B8%97-(digital-code-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-%E0%B8%AA%E0%B9%82%E0%B8%95%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%97%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B9%89%E0%B8%99)-i.80542654.12699568640?sp_atk=d21a0734-e732-4e87-9161-5d08092087a3&amp;xptdk=d21a0734-e732-4e87-9161-5d08092087a3</v>
+        <v>https://shopee.co.th/%E2%9A%A1%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1-2-Credit-%F0%9F%8E%81%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E2%9D%8C%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89%E2%9A%A1-i.90953090.10994334899?sp_atk=fe944a2b-fc43-455b-8a13-91d6805694af&amp;xptdk=fe944a2b-fc43-455b-8a13-91d6805694af</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-li73j0dz9pjl6d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8cda9ebf66e43347f14a1757f18ea5c9_tn</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>(รบกวนอ่านรายละเอียดก่อนซื้อ) PSN 300 บาท (digital code สำหรับ สโตร์ไทยเท่านั้น)</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E27" t="str">
-        <v>325</v>
+        <v>⚡สติกเกอร์ไลน์ 1 บาท / จ่าย 1 บาท ได้ยอดสะสม 2 Credit 🎁ส่งเป็นของขวัญ❌ไม่ส่งเหรียญ สะสมยอดได้⚡</v>
       </c>
       <c r="F27" t="str">
-        <v>ขายแล้ว 790 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G27" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>ขายแล้ว 3.6พัน ชิ้น</v>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J27" t="str">
         <v/>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>฿</v>
+      </c>
+      <c r="L27" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%9A%E0%B8%B4%E0%B8%99-%E0%B8%84%E0%B8%B9%E0%B8%9B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%A5%E0%B8%81%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B9%80%E0%B8%A1%E0%B8%99%E0%B8%B9%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-65-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.17761627.25757661636?sp_atk=e81c27ed-ebf5-4e42-9b3e-b5fb38df221d&amp;xptdk=e81c27ed-ebf5-4e42-9b3e-b5fb38df221d</v>
+        <v>https://shopee.co.th/Line-Melody-(%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-)-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-i.541211436.19328609653?sp_atk=35f0d1f5-2cd9-4e7f-9e9a-2166ea0cbfb6&amp;xptdk=35f0d1f5-2cd9-4e7f-9e9a-2166ea0cbfb6</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lqbuynbgcl4403_tn</v>
+        <v>https://down-th.img.susercontent.com/file/116b4c9331afc7781fd23c67d40cf9b6_tn</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>-80%</v>
       </c>
       <c r="D28" t="str">
-        <v>เต่าบิน คูปองแลกฟรีทุกเมนูสูงสุด 65 บาท</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E28" t="str">
-        <v>35</v>
+        <v>Line Melody  (ไลน์ เมโลดี้ ) ส่งให้เป็นของขวัญ</v>
       </c>
       <c r="F28" t="str">
-        <v>ขายแล้ว 63 ชิ้น</v>
+        <v>฿5</v>
       </c>
       <c r="G28" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>ขายแล้ว 12.6พัน ชิ้น</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J28" t="str">
         <v/>
       </c>
       <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/-E-Ticket-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%AA%E0%B8%A7%E0%B8%99%E0%B8%AA%E0%B8%99%E0%B8%B8%E0%B8%81%E0%B8%94%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B9%80%E0%B8%A7%E0%B8%B4%E0%B8%A5%E0%B8%94%E0%B9%8C-SUPER-VISA-%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%88%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%9A-%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%A5%E0%B8%B0-799-%E0%B8%9A%E0%B8%B2%E0%B8%97-(DREAM-WORLD)-i.129998545.2802414269?sp_atk=573c5773-9a40-42c2-90fd-4d647624bddd&amp;xptdk=573c5773-9a40-42c2-90fd-4d647624bddd</v>
+        <v>https://shopee.co.th/PlayStation-PSN-800-%E0%B8%9A%E0%B8%B2%E0%B8%97-Code-(TH)-i.274595810.5562109957?sp_atk=5ad539a7-1593-440c-b924-175fd9121cc5&amp;xptdk=5ad539a7-1593-440c-b924-175fd9121cc5</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lqxlylusd5ke87_tn</v>
+        <v>https://down-th.img.susercontent.com/file/4166fc701e89ad72497c8fe43ccd9feb_tn</v>
       </c>
       <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v>PlayStation : PSN 800 บาท Code (TH)</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>864</v>
+      </c>
+      <c r="H29" t="str">
+        <v>ขายแล้ว 4.6พัน ชิ้น</v>
+      </c>
+      <c r="I29" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="J29" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D29" t="str">
-        <v>[ E-Ticket ] บัตร สวนสนุกดรีมเวิลด์ SUPER VISA รวมทุกเครื่องเล่น ไม่จำกัดรอบ ท่านละ 799 บาท (DREAM WORLD)</v>
-      </c>
-      <c r="E29" t="str">
-        <v>250</v>
-      </c>
-      <c r="F29" t="str">
-        <v>ขายแล้ว 6พัน ชิ้น</v>
-      </c>
-      <c r="G29" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="H29" t="str">
-        <v>-</v>
-      </c>
-      <c r="I29" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J29" t="str">
-        <v>999</v>
-      </c>
       <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/-Voucher-%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%AA-Plus-1-Week-%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%A2%E0%B8%B9%E0%B9%88%E0%B9%83%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8%E0%B9%84%E0%B8%97%E0%B8%A2%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%AD%E0%B8%B1%E0%B8%95%E0%B9%82%E0%B8%99%E0%B8%A1%E0%B8%B1%E0%B8%95%E0%B8%B4-i.301371603.13449704788?sp_atk=af8e58ab-adcb-437d-86f1-b5330ab71987&amp;xptdk=af8e58ab-adcb-437d-86f1-b5330ab71987</v>
+        <v>https://shopee.co.th/-E-voucher-Cockpit-%E0%B8%9A%E0%B8%B8%E0%B8%9F%E0%B9%80%E0%B8%9F%E0%B8%95%E0%B9%8C%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%A5%E0%B8%A1%E0%B8%A2%E0%B8%B2%E0%B8%87%E0%B9%84%E0%B8%99%E0%B9%82%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%88%E0%B8%99-2-%E0%B8%9B%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88-COCKPIT-89-%E0%B8%AA%E0%B8%B2%E0%B8%82%E0%B8%B2-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%95%E0%B8%A3%E0%B8%A7%E0%B8%88%E0%B9%80%E0%B8%8A%E0%B9%87%E0%B8%81%E0%B8%A3%E0%B8%96%E0%B8%A2%E0%B8%99%E0%B8%95%E0%B9%8C%E0%B9%80%E0%B8%9A%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%95%E0%B9%89%E0%B8%99!-i.237210903.9607263531?sp_atk=b1440d73-b665-41b8-99bf-2c7fcbeb17a1&amp;xptdk=b1440d73-b665-41b8-99bf-2c7fcbeb17a1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-diufoiofwymv8b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22090-fh3vypv1izhvf6_tn</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>-96%</v>
       </c>
       <c r="D30" t="str">
-        <v>[Voucher]ทินเดอร์พลัส - Plus 1 Week [โค้ดสำหรับลูกค้าที่อยู่ในประเทศไทยเท่านั้น] โค้ดส่งอัตโนมัติ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E30" t="str">
-        <v>89</v>
+        <v>[E-voucher] Cockpit บุฟเฟต์เติม/เปลี่ยนลมยางไนโตรเจน 2 ปี ที่ COCKPIT 89 สาขา แถมฟรี บริการตรวจเช็กรถยนต์เบื้องต้น!</v>
       </c>
       <c r="F30" t="str">
-        <v>ขายแล้ว 4.5พัน ชิ้น</v>
+        <v>฿200</v>
       </c>
       <c r="G30" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>9</v>
       </c>
       <c r="H30" t="str">
-        <v>฿159</v>
+        <v>ขายแล้ว 106.5พัน ชิ้น</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J30" t="str">
         <v/>
       </c>
       <c r="K30" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0-30-%E0%B8%AD%E0%B8%AD%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%A3%E0%B8%81-2.2-Seagate-Gift-Voucher-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-300-%E0%B8%9A%E0%B8%B2%E0%B8%97-(%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B2%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%88%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A2)-i.57641011.12395837219?sp_atk=c8e69433-7cf6-4112-acdb-2b91ee51f873&amp;xptdk=c8e69433-7cf6-4112-acdb-2b91ee51f873</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%F0%9F%8E%81%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E2%9D%8C%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-i.754786532.17256946563?sp_atk=fa207948-d4d5-4d67-a46b-fe23e243ac08&amp;xptdk=fa207948-d4d5-4d67-a46b-fe23e243ac08</v>
       </c>
       <c r="B31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lr79d9rpbhbi4b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-ue59rkk579iv8b_tn</v>
       </c>
       <c r="C31" t="str">
         <v/>
       </c>
       <c r="D31" t="str">
-        <v>[เฉพาะ 30 ออเดอร์แรก 2.2] Seagate Gift Voucher มูลค่า 300 บาท (สินค้าสมนาคุณลูกค้า ไม่มีจำหน่าย)</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>300</v>
+        <v>สติกเกอร์ไลน์ ธีม อิโมจิ เมโลดี้ 🎁ส่งเป็นของขวัญ❌ไม่ส่งเป็นเหรียญ</v>
       </c>
       <c r="F31" t="str">
-        <v>ขายแล้ว 394 ชิ้น</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>ขายแล้ว 11.7พัน ชิ้น</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-be4971a98b00c8ab5c2d750969a51334</v>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/Package-10-500-THB-for-3.3-Mega-Campaign-i.175707560.24459123864?sp_atk=066dba9d-719f-4363-b3e8-b404b41dbd0f&amp;xptdk=066dba9d-719f-4363-b3e8-b404b41dbd0f</v>
+        <v>https://shopee.co.th/-E-Coupon-%E0%B8%9E%E0%B8%8D%E0%B8%B2%E0%B9%84%E0%B8%97-ALL-YOU-CAN-CHECK-PLUS-%E0%B8%95%E0%B8%A3%E0%B8%A7%E0%B8%88%E0%B9%80%E0%B8%9E%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%9C%E0%B8%A5-%E0%B8%95%E0%B8%A5%E0%B8%AD%E0%B8%94-1-%E0%B8%9B%E0%B8%B5-%E0%B9%80%E0%B8%9E%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%94%E0%B8%B5-%E0%B8%97%E0%B8%B1%E0%B9%89%E0%B8%87%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%88%E0%B8%B4%E0%B8%95-i.379804630.22761671207?sp_atk=9261c637-ae74-4c71-a5f4-9994bafdde17&amp;xptdk=9261c637-ae74-4c71-a5f4-9994bafdde17</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lqmypzvifzz82a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-looyzapcwev13b_tn</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>-70%</v>
       </c>
       <c r="D32" t="str">
-        <v>Package 10,500 THB for 3.3 Mega Campaign</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E32" t="str">
-        <v>10,500</v>
+        <v>[E-Coupon] พญาไท -  ALL YOU CAN CHECK PLUS ตรวจเพื่อปรับ พร้อมติดตามผล ตลอด 1 ปี เพื่อเป้าหมายสุขภาพดี ทั้งร่างกายและจิต</v>
       </c>
       <c r="F32" t="str">
-        <v>ขายแล้ว 3 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G32" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>24,500</v>
       </c>
       <c r="H32" t="str">
-        <v/>
+        <v>ขายแล้ว 47 ชิ้น</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J32" t="str">
         <v/>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>฿</v>
+      </c>
+      <c r="L32" t="str">
+        <v>27,500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-i.1008796148.23369404047?sp_atk=c80f93a1-5612-4706-9c65-a635614dee86&amp;xptdk=c80f93a1-5612-4706-9c65-a635614dee86</v>
+        <v>https://shopee.co.th/PlayStation-PSN-Gift-Card-300-THB-%E0%B9%84%E0%B8%97%E0%B8%A2-PS4-PS5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-CODE-AUTO-%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5--i.399706256.22574478029?sp_atk=e34f433b-bcf1-4879-8200-fd717a075cc4&amp;xptdk=e34f433b-bcf1-4879-8200-fd717a075cc4</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lq0ks53vwpay38_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-ljgkszedj7dy56_tn</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v>สติ๊กเกอร์ไลน์/ธีมไลน์/อิโมจิ/เมโลดี้</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>25</v>
+        <v>PlayStation PSN Gift Card 300 THB [ไทย] PS4/PS5 [ส่งรหัส CODE AUTO ทันที]</v>
       </c>
       <c r="F33" t="str">
-        <v>ขายแล้ว 5.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>จังหวัดราชบุรี</v>
+        <v>330</v>
       </c>
       <c r="H33" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 127 ชิ้น</v>
       </c>
       <c r="I33" t="str">
-        <v>฿</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="J33" t="str">
-        <v>75</v>
+        <v/>
       </c>
       <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/Shopee-Mall-Listing-Fee-Package-i.175707560.23520848422?sp_atk=ebaf1c50-5171-4a44-a0bf-d0f144c88adc&amp;xptdk=ebaf1c50-5171-4a44-a0bf-d0f144c88adc</v>
+        <v>https://shopee.co.th/%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B9%82%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B9%8C%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%942x3-%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%96%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%94%E0%B8%8A%E0%B8%B1%E0%B8%94%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B2%E0%B8%A9%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AD%E0%B8%A2%E0%B8%B9%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%99%E0%B8%B2%E0%B8%99-i.393062389.25955502131?sp_atk=3d3386ac-a615-4979-8e2a-440778d11171&amp;xptdk=3d3386ac-a615-4979-8e2a-440778d11171</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-0iw3eun5rymv68_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lpt4xpm56yn8f1_tn</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>-83%</v>
       </c>
       <c r="D34" t="str">
-        <v>Shopee Mall - Listing Fee Package</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E34" t="str">
-        <v>32,100</v>
+        <v>รับปริ้นรูปโพลารอยด์ขนาด2x3 ปริ้นรูปล้างรูปถ่าย สีสดชัดใช้กระดาษรูปคุณภาพสูงกันน้ำอยู่ได้นาน</v>
       </c>
       <c r="F34" t="str">
-        <v>ขายแล้ว 446 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G34" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H34" t="str">
-        <v/>
+        <v>ขายแล้ว 4.6พัน ชิ้น</v>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>จังหวัดสมุทรสาคร</v>
       </c>
       <c r="J34" t="str">
         <v/>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>฿</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-PTT-(%E0%B9%83%E0%B8%9A%E0%B8%A5%E0%B8%B0-500-2-000)-%E0%B8%9B%E0%B8%95%E0%B8%97.-i.91842644.5576989321?sp_atk=1c8092a7-702c-42b9-b73d-ad80b8fc4fa0&amp;xptdk=1c8092a7-702c-42b9-b73d-ad80b8fc4fa0</v>
+        <v>https://shopee.co.th/Digital-PSN-CARD-300-TH-(TH-account-only)-i.300336729.4265584041?sp_atk=7b6b10f9-9bf8-4ae1-a95a-4d31d2cc79d0&amp;xptdk=7b6b10f9-9bf8-4ae1-a95a-4d31d2cc79d0</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/1e1c0bb299054518f5169885ec8fe846_tn</v>
+        <v>https://down-th.img.susercontent.com/file/3c94e0a19c08f67855a2b3c8f14433a8_tn</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>-19%</v>
       </c>
       <c r="D35" t="str">
-        <v>บัตรเติมน้ำมัน PTT (ใบละ 500-2,000) ปตท.</v>
+        <v/>
       </c>
       <c r="E35" t="str">
-        <v>1,040</v>
+        <v>Digital | PSN CARD 300 TH (TH account only)</v>
       </c>
       <c r="F35" t="str">
-        <v>ขายแล้ว 2.5พัน ชิ้น</v>
+        <v>฿400</v>
       </c>
       <c r="G35" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>324</v>
       </c>
       <c r="H35" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 3พัน ชิ้น</v>
       </c>
       <c r="I35" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J35" t="str">
-        <v>2,080</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/-E-Coupon-MONOMAX-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99-7-%E0%B8%A7%E0%B8%B1%E0%B8%99-1-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C--i.184668305.23545037423?sp_atk=1eb726cf-5ae6-4474-abb2-45380b688aed&amp;xptdk=1eb726cf-5ae6-4474-abb2-45380b688aed</v>
+        <v>https://shopee.co.th/Photobook-%E0%B8%AD%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B9%E0%B8%9B-4x6-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-(4R)-%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B9%86%E0%B8%9C%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%84%E0%B8%AD%E0%B8%A1%E0%B8%AB%E0%B8%A3%E0%B8%B7%E0%B8%AD%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%88%E0%B8%B3%E0%B8%99%E0%B8%A7%E0%B8%99-100-%E0%B9%83%E0%B8%9A-i.7090256.2122582392?sp_atk=7f8d0c75-251c-4bfa-9105-871092956466&amp;xptdk=7f8d0c75-251c-4bfa-9105-871092956466</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lqw31vhq0szh12_tn</v>
+        <v>https://down-th.img.susercontent.com/file/960d29dc8b9742a8076ed06df8a00d82_tn</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>-32%</v>
       </c>
       <c r="D36" t="str">
-        <v>[E-Coupon] MONOMAX รหัสเติมวันใช้งาน 7 วัน [1 อุปกรณ์]</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E36" t="str">
-        <v>35</v>
+        <v>Photobook: อัดรูป 4x6 นิ้ว (4R) ปริ้นรูป ล้างรูป ง่ายๆผ่านคอมหรือมือถือ - จำนวน 100 ใบ</v>
       </c>
       <c r="F36" t="str">
-        <v>ขายแล้ว 3.2พัน ชิ้น</v>
+        <v>฿500</v>
       </c>
       <c r="G36" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>339</v>
       </c>
       <c r="H36" t="str">
-        <v>฿40</v>
+        <v>ขายแล้ว 2พัน ชิ้น</v>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J36" t="str">
         <v/>
       </c>
       <c r="K36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/Line-Melody-(%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-)-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-i.541211436.19328609653?sp_atk=d6c569cf-6ca4-4dfb-9c79-4872bf5eb19d&amp;xptdk=d6c569cf-6ca4-4dfb-9c79-4872bf5eb19d</v>
+        <v>https://shopee.co.th/WeTV-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-VIP-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99-3-%E0%B8%A7%E0%B8%B1%E0%B8%99-i.181780557.7205437719?sp_atk=f7ffb95f-0bbd-4446-8e29-bff2230b7948&amp;xptdk=f7ffb95f-0bbd-4446-8e29-bff2230b7948</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/116b4c9331afc7781fd23c67d40cf9b6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lpadvykl76g9c9_tn</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>-32%</v>
       </c>
       <c r="D37" t="str">
-        <v>Line Melody  (ไลน์ เมโลดี้ ) ส่งให้เป็นของขวัญ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E37" t="str">
-        <v>1</v>
+        <v>WeTV รหัส VIP สำหรับใช้งาน 3 วัน</v>
       </c>
       <c r="F37" t="str">
-        <v>ขายแล้ว 12.6พัน ชิ้น</v>
+        <v>฿28</v>
       </c>
       <c r="G37" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>19</v>
       </c>
       <c r="H37" t="str">
-        <v>฿5</v>
+        <v>ขายแล้ว 87.3พัน ชิ้น</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J37" t="str">
         <v/>
       </c>
       <c r="K37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/%E3%80%90JP-NA%E3%80%91Fate-Grand-Order-%E2%9E%80-i.365737320.18991793595?sp_atk=7e24c677-ac68-42cc-9685-866457412348&amp;xptdk=7e24c677-ac68-42cc-9685-866457412348</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B9%E0%B8%9B-4x6-%E0%B8%AD%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87-kodak-(%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B9%89%E0%B8%99)(%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7)-%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-30%E0%B8%9B%E0%B8%B5-i.785674.21186476253?sp_atk=e78d46db-8b67-4596-a170-1c6aef51adf8&amp;xptdk=e78d46db-8b67-4596-a170-1c6aef51adf8</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lqxfmjpn167x22_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-loeg4xn29rkv82_tn</v>
       </c>
       <c r="C38" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>【JP/NA】Fate-Grand Order ➀</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E38" t="str">
-        <v>60</v>
+        <v>อัดรูป 4x6 อัดจากเครื่อง kodak (เฉพาะรูปเท่านั้น)(ส่งไว) รูปสวย ทนนาน 30ปี</v>
       </c>
       <c r="F38" t="str">
-        <v>ขายแล้ว 282 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G38" t="str">
-        <v>จังหวัดชลบุรี</v>
+        <v>48</v>
       </c>
       <c r="H38" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 120 ชิ้น</v>
       </c>
       <c r="I38" t="str">
+        <v>จังหวัดนครราชสีมา</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
         <v>฿</v>
       </c>
-      <c r="J38" t="str">
-        <v>180</v>
-      </c>
-      <c r="K38" t="str">
-        <v/>
+      <c r="L38" t="str">
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B9%81%E0%B8%A5%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-i.9915060.19934965708?sp_atk=8332bf68-5c17-4dca-9f16-752b93aa41e5&amp;xptdk=8332bf68-5c17-4dca-9f16-752b93aa41e5</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%B1%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%AD%E0%B8%87-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-45%E0%B8%BF-%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B2-%F0%9F%92%95%F0%9F%A5%B0-i.5965540.12899760475?sp_atk=3078f261-19bc-4a7c-86e9-43844202d2d3&amp;xptdk=3078f261-19bc-4a7c-86e9-43844202d2d3</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-c2ds6rq68klv98_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lr42osxx7iylea_tn</v>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>สติ๊กเกอร์ไลน์ ธีม อิโมจิ เริ่มต้น 1 บาท สะสมครบแลกได้ทันที ส่งเป็นของขวัญ</v>
+        <v/>
       </c>
       <c r="E39" t="str">
-        <v>1</v>
+        <v>สติกเกอร์ คัลแลน &amp; พี่จอง ราคา 45฿ เท่านั้นค่า 💕🥰</v>
       </c>
       <c r="F39" t="str">
-        <v>ขายแล้ว 7.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>จังหวัดสงขลา</v>
+        <v>45</v>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>ขายแล้ว 312 ชิ้น</v>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>จังหวัดราชบุรี</v>
       </c>
       <c r="J39" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/Steam-Wallet-TH-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-1000-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.21657625578?sp_atk=eada1ed0-7800-4623-87b0-f95adafb9ff0&amp;xptdk=eada1ed0-7800-4623-87b0-f95adafb9ff0</v>
+        <v>https://shopee.co.th/WeTV-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-VIP-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99-1-%E0%B8%A7%E0%B8%B1%E0%B8%99-i.181780557.3130514525?sp_atk=9061ff94-863b-45ff-b2d6-7db3c505b1ff&amp;xptdk=9061ff94-863b-45ff-b2d6-7db3c505b1ff</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-oz2hkrvy84iv30_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lo76im9cktf4f0_tn</v>
       </c>
       <c r="C40" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>-50%</v>
       </c>
       <c r="D40" t="str">
-        <v>Steam Wallet TH มูลค่า 1000 บาท</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
       </c>
       <c r="E40" t="str">
-        <v>1,130</v>
+        <v>WeTV รหัส VIP สำหรับใช้งาน 1 วัน</v>
       </c>
       <c r="F40" t="str">
-        <v>ขายแล้ว 282 ชิ้น</v>
+        <v>฿20</v>
       </c>
       <c r="G40" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>10</v>
       </c>
       <c r="H40" t="str">
-        <v/>
+        <v>ขายแล้ว 89.2พัน ชิ้น</v>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J40" t="str">
         <v/>
       </c>
       <c r="K40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/%E2%9A%A1%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%A2-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1-2-Credit-%F0%9F%8E%81%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E2%9D%8C%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89%E2%9A%A1-i.90953090.10994334899?sp_atk=f76a121b-02e7-46eb-9670-3512ef78ec9e&amp;xptdk=f76a121b-02e7-46eb-9670-3512ef78ec9e</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8-10-%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-5-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.233239802.20001090774?sp_atk=f716b988-b2a6-4a2f-8e14-3a743b156104&amp;xptdk=f716b988-b2a6-4a2f-8e14-3a743b156104</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/8cda9ebf66e43347f14a1757f18ea5c9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8a3aaea14fa334602d3f84f594dce0c1_tn</v>
       </c>
       <c r="C41" t="str">
         <v/>
       </c>
       <c r="D41" t="str">
-        <v>⚡สติกเกอร์ไลน์ 1 บาท / จ่าย 1 บาท ได้ยอดสะสม 2 Credit 🎁ส่งเป็นของขวัญ❌ไม่ส่งเหรียญ สะสมยอดได้⚡</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E41" t="str">
-        <v>1</v>
+        <v>สติ๊กเกอร์ไลน์ต่างประเทศ 10 เหรียญ ราคา 5 บาท</v>
       </c>
       <c r="F41" t="str">
-        <v>ขายแล้ว 3.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>6</v>
       </c>
       <c r="H41" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 1.1พัน ชิ้น</v>
       </c>
       <c r="I41" t="str">
-        <v>฿</v>
+        <v>จังหวัดพระนครศรีอยุธยา</v>
       </c>
       <c r="J41" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="K41" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/Mojivip-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%96%E0%B8%B9%E0%B8%81-i.33753817.24608601299?sp_atk=8b268f0e-83ee-4343-aca4-a2f2383e693b&amp;xptdk=8b268f0e-83ee-4343-aca4-a2f2383e693b</v>
+        <v>https://shopee.co.th/300-Roblox-Gift-Card-Digital-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8-%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%AA%E0%B8%81%E0%B8%B8%E0%B8%A5%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-TH-i.617251000.22849399558?sp_atk=80f2093e-b447-47b3-b5b0-5c11986580cf&amp;xptdk=80f2093e-b447-47b3-b5b0-5c11986580cf</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lqivj5ngh2as6b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-ljmmfikxhnaee8_tn</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>Mojivip พร้อมส่ง ราคาถูก</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E42" t="str">
-        <v>40</v>
+        <v>300 Roblox Gift Card [Digital] เฉพาะประเทศ ไทย สกุลเงิน TH</v>
       </c>
       <c r="F42" t="str">
-        <v>ขายแล้ว 114 ชิ้น</v>
+        <v/>
       </c>
       <c r="G42" t="str">
-        <v>จังหวัดพระนครศรีอยุธยา</v>
+        <v>320</v>
       </c>
       <c r="H42" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 534 ชิ้น</v>
       </c>
       <c r="I42" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J42" t="str">
-        <v>200</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%B1%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B5%E0%B9%88%E0%B8%88%E0%B8%AD%E0%B8%87-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-45%E0%B8%BF-%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%84%E0%B9%88%E0%B8%B2-%F0%9F%92%95%F0%9F%A5%B0-i.5965540.12899760475?sp_atk=90d0be8e-9466-46a9-9e60-2d7b77ba09b3&amp;xptdk=90d0be8e-9466-46a9-9e60-2d7b77ba09b3</v>
+        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-RAZER-GOLD-PIN-TH-50%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.17616401975?sp_atk=97900d31-710c-4313-aca1-d43fdab399bd&amp;xptdk=97900d31-710c-4313-aca1-d43fdab399bd</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lr42osxx7iylea_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5faeb3f76d10f257bbe93d2aa10f53ed_tn</v>
       </c>
       <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+      </c>
+      <c r="E43" t="str">
+        <v>บัตร RAZER GOLD PIN TH 50บาท</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>69</v>
+      </c>
+      <c r="H43" t="str">
+        <v>ขายแล้ว 3พัน ชิ้น</v>
+      </c>
+      <c r="I43" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="J43" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D43" t="str">
-        <v>สติกเกอร์ คัลแลน &amp; พี่จอง ราคา 45฿ เท่านั้นค่า 💕🥰</v>
-      </c>
-      <c r="E43" t="str">
-        <v>45</v>
-      </c>
-      <c r="F43" t="str">
-        <v>ขายแล้ว 312 ชิ้น</v>
-      </c>
-      <c r="G43" t="str">
-        <v>จังหวัดราชบุรี</v>
-      </c>
-      <c r="H43" t="str">
-        <v/>
-      </c>
-      <c r="I43" t="str">
-        <v/>
-      </c>
-      <c r="J43" t="str">
-        <v/>
-      </c>
       <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/300-Roblox-Gift-Card-Digital-%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8-%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%AA%E0%B8%81%E0%B8%B8%E0%B8%A5%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-TH-i.617251000.22849399558?sp_atk=8d0d2aea-1ca4-409f-8de8-22928ce1709f&amp;xptdk=8d0d2aea-1ca4-409f-8de8-22928ce1709f</v>
+        <v>https://shopee.co.th/Mojivip-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%96%E0%B8%B9%E0%B8%81-i.33753817.24608601299?sp_atk=cd1b5385-38fb-468f-adfe-e6ecb2d62ea1&amp;xptdk=cd1b5385-38fb-468f-adfe-e6ecb2d62ea1</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-ljmmfikxhnaee8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lqivj5ngh2as6b_tn</v>
       </c>
       <c r="C44" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>-6%</v>
       </c>
       <c r="D44" t="str">
-        <v>300 Roblox Gift Card [Digital] เฉพาะประเทศ ไทย สกุลเงิน TH</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>320</v>
+        <v>Mojivip พร้อมส่ง ราคาถูก</v>
       </c>
       <c r="F44" t="str">
-        <v>ขายแล้ว 534 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G44" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>38</v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>ขายแล้ว 114 ชิ้น</v>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>จังหวัดพระนครศรีอยุธยา</v>
       </c>
       <c r="J44" t="str">
         <v/>
       </c>
       <c r="K44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>฿</v>
+      </c>
+      <c r="L44" t="str">
+        <v>190</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/WeTV-%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA-VIP-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99-1-%E0%B8%A7%E0%B8%B1%E0%B8%99-i.181780557.3130514525?sp_atk=1a9670fa-6d27-436b-99fa-9e3d80ca998b&amp;xptdk=1a9670fa-6d27-436b-99fa-9e3d80ca998b</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B9%81%E0%B8%A5%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-i.9915060.19934965708?sp_atk=e38ac311-7652-4477-89ce-55849548fb32&amp;xptdk=e38ac311-7652-4477-89ce-55849548fb32</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lo76im9cktf4f0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-c2ds6rq68klv98_tn</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
       <c r="D45" t="str">
-        <v>WeTV รหัส VIP สำหรับใช้งาน 1 วัน</v>
+        <v/>
       </c>
       <c r="E45" t="str">
-        <v>10</v>
+        <v>สติ๊กเกอร์ไลน์ ธีม อิโมจิ เริ่มต้น 1 บาท สะสมครบแลกได้ทันที ส่งเป็นของขวัญ</v>
       </c>
       <c r="F45" t="str">
-        <v>ขายแล้ว 89.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G45" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H45" t="str">
-        <v>฿20</v>
+        <v>ขายแล้ว 7.2พัน ชิ้น</v>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>จังหวัดสงขลา</v>
       </c>
       <c r="J45" t="str">
         <v/>
       </c>
       <c r="K45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-b16e8e822fdeb4987d54400a4a45dde0</v>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/Steam-Wallet-TH-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-350-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.22402217568?sp_atk=29ea549a-96e8-4ce2-ad9d-1bb0c09babe5&amp;xptdk=29ea549a-96e8-4ce2-ad9d-1bb0c09babe5</v>
+        <v>https://shopee.co.th/Garena-Gift-Card-Shells-30-Shell-(Digital)-i.326412522.25554124713?sp_atk=531fe5b4-54e8-4e54-b540-23e027a7a03c&amp;xptdk=531fe5b4-54e8-4e54-b540-23e027a7a03c</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-w6za2cyx84ivb7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lphu9cj9pj9r61_tn</v>
       </c>
       <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v>Garena Gift Card Shells 30 Shell (Digital)</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>29</v>
+      </c>
+      <c r="H46" t="str">
+        <v>ขายแล้ว 92 ชิ้น</v>
+      </c>
+      <c r="I46" t="str">
+        <v>จังหวัดนนทบุรี</v>
+      </c>
+      <c r="J46" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D46" t="str">
-        <v>Steam Wallet TH มูลค่า 350 บาท</v>
-      </c>
-      <c r="E46" t="str">
-        <v>400</v>
-      </c>
-      <c r="F46" t="str">
-        <v>ขายแล้ว 390 ชิ้น</v>
-      </c>
-      <c r="G46" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="H46" t="str">
-        <v/>
-      </c>
-      <c r="I46" t="str">
-        <v/>
-      </c>
-      <c r="J46" t="str">
-        <v/>
-      </c>
       <c r="K46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/%E2%9C%B4%EF%B8%8F%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-2x3-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-3x4-%E0%B9%80%E0%B9%80%E0%B8%A5%E0%B8%B0-4x6-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AA-i.7360341.16888282047?sp_atk=e19e9d15-888c-4c34-b0bf-dc7cf260d672&amp;xptdk=e19e9d15-888c-4c34-b0bf-dc7cf260d672</v>
+        <v>https://shopee.co.th/Package-7-500-THB-for-3.15-Mega-Campaign-i.175707560.24209158346?sp_atk=a396fc39-2b18-4f8b-ae36-2f78c67389c2&amp;xptdk=a396fc39-2b18-4f8b-ae36-2f78c67389c2</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-kctk0boek1iv24_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lqmyx932cnvo37_tn</v>
       </c>
       <c r="C47" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D47" t="str">
-        <v>✴️ปริ้นรูป ขนาด 2x3 นิ้ว, 3x4 เเละ 4x6 นิ้ว พร้อมซองใส</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>2</v>
+        <v>Package 7,500 THB for 3.15 Mega Campaign</v>
       </c>
       <c r="F47" t="str">
-        <v>ขายแล้ว 29พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G47" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>7,500</v>
       </c>
       <c r="H47" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 4 ชิ้น</v>
       </c>
       <c r="I47" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J47" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="K47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/%F0%9F%97%B3-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-%E2%9C%A8-%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A0%E0%B8%B2%E0%B8%A2%E0%B9%83%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D%E0%B9%81%E0%B8%97%E0%B9%89%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AD%E0%B8%AD%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E2%AD%90-i.600793907.24806043028?sp_atk=171a186e-fc62-46d0-ae10-705abe1151f6&amp;xptdk=171a186e-fc62-46d0-ae10-705abe1151f6</v>
+        <v>https://shopee.co.th/shopbychaaym%F0%9F%A9%B5prime-video%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%AD%E0%B8%9E%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B9%88%E0%B8%B2%F0%9F%92%99-i.214225890.22179785458?sp_atk=8142cdff-8c4d-4eab-87a3-cb82bf45673f&amp;xptdk=8142cdff-8c4d-4eab-87a3-cb82bf45673f</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lpypvov52go47d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-llsyy2xj8uby95_tn</v>
       </c>
       <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+      </c>
+      <c r="E48" t="str">
+        <v>shopbychaaym🩵prime videoหนังดีแอพใหม่พร้อมส่งค่า💙</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>99</v>
+      </c>
+      <c r="H48" t="str">
+        <v>ขายแล้ว 760 ชิ้น</v>
+      </c>
+      <c r="I48" t="str">
+        <v>จังหวัดลพบุรี</v>
+      </c>
+      <c r="J48" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D48" t="str">
-        <v>🗳 สติกเกอร์ / ธีม / อิโมจิไลน์ ราคาถูกสุด ✨ จัดส่งภายในวันที่สั่งซื้อ ส่งเป็นของขวัญ เหรียญแท้รับประกันทุกออเดอร์ ⭐</v>
-      </c>
-      <c r="E48" t="str">
-        <v>25</v>
-      </c>
-      <c r="F48" t="str">
-        <v>ขายแล้ว 264 ชิ้น</v>
-      </c>
-      <c r="G48" t="str">
-        <v>จังหวัดพระนครศรีอยุธยา</v>
-      </c>
-      <c r="H48" t="str">
-        <v>-</v>
-      </c>
-      <c r="I48" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J48" t="str">
-        <v>75</v>
-      </c>
       <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/-GWP-M-PASS-x-Boss-1-Ticket-i.975367572.23287485248?sp_atk=8cb330da-a27f-41b7-b089-3d1018462de1&amp;xptdk=8cb330da-a27f-41b7-b089-3d1018462de1</v>
+        <v>https://shopee.co.th/%E0%B8%84%E0%B8%B9%E0%B8%9B%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%A3%E0%B8%B1%E0%B8%81-Love-coupons-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%81%E0%B8%9F%E0%B8%99%E0%B9%83%E0%B8%99%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%99%E0%B9%8C-1%E0%B8%8A%E0%B8%B8%E0%B8%9424%E0%B9%83%E0%B8%9A-i.219678867.24208017849?sp_atk=38d00450-3ec4-4343-8291-6dd530e5b3e0&amp;xptdk=38d00450-3ec4-4343-8291-6dd530e5b3e0</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-loqace5vu43h3f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lqeex3f6xzbuf6_tn</v>
       </c>
       <c r="C49" t="str">
         <v/>
       </c>
       <c r="D49" t="str">
-        <v>[GWP] M PASS  x Boss  1 Ticket</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E49" t="str">
-        <v>99,999</v>
+        <v>คูปองสื่อรัก Love coupons ของขวัญให้แฟนในวันวาเลนไทน์ 1ชุด24ใบ</v>
       </c>
       <c r="F49" t="str">
-        <v>ขายแล้ว 705 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G49" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>89</v>
       </c>
       <c r="H49" t="str">
-        <v/>
+        <v>ขายแล้ว 17 ชิ้น</v>
       </c>
       <c r="I49" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J49" t="str">
         <v/>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>฿</v>
+      </c>
+      <c r="L49" t="str">
+        <v>169</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/shopbychaaym%F0%9F%A9%B5prime-video%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%94%E0%B8%B5%E0%B9%81%E0%B8%AD%E0%B8%9E%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B9%88%E0%B8%B2%F0%9F%92%99-i.214225890.22179785458?sp_atk=14a29365-34ab-40ea-9980-23143ef52aa2&amp;xptdk=14a29365-34ab-40ea-9980-23143ef52aa2</v>
+        <v>https://shopee.co.th/%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-1-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-1.5-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-2-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B2%E0%B8%A9-photo-230-%E0%B9%81%E0%B8%81%E0%B8%A3%E0%B8%A1-%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%AA%E0%B8%A1%E0%B8%B1%E0%B8%84%E0%B8%A3%E0%B8%87%E0%B8%B2%E0%B8%99-%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%A8%E0%B8%B6%E0%B8%81%E0%B8%A9%E0%B8%B2-%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%97%E0%B8%B3%E0%B8%87%E0%B8%B2%E0%B8%99-%E0%B8%AA%E0%B8%A1%E0%B8%B1%E0%B8%84%E0%B8%A3%E0%B8%87%E0%B8%B2%E0%B8%99-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%84%E0%B8%A3%E0%B8%B8%E0%B8%A2-i.852259512.19678955053?sp_atk=b18f432c-6b83-4a11-a73c-aa87dd94513f&amp;xptdk=b18f432c-6b83-4a11-a73c-aa87dd94513f</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-llsyy2xj8uby95_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lfs1i8x0w4cv72_tn</v>
       </c>
       <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+      </c>
+      <c r="E50" t="str">
+        <v>รูปติดบัตร ขนาด 1 นิ้ว 1.5 นิ้ว 2 นิ้ว กระดาษ photo 230 แกรม รูปสมัครงาน รูปนักเรียน นักศึกษา รูปทำงาน สมัครงาน ชุดครุย</v>
+      </c>
+      <c r="F50" t="str">
+        <v>-</v>
+      </c>
+      <c r="G50" t="str">
+        <v>49</v>
+      </c>
+      <c r="H50" t="str">
+        <v>ขายแล้ว 141 ชิ้น</v>
+      </c>
+      <c r="I50" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="J50" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D50" t="str">
-        <v>shopbychaaym🩵prime videoหนังดีแอพใหม่พร้อมส่งค่า💙</v>
-      </c>
-      <c r="E50" t="str">
-        <v>99</v>
-      </c>
-      <c r="F50" t="str">
-        <v>ขายแล้ว 757 ชิ้น</v>
-      </c>
-      <c r="G50" t="str">
-        <v>จังหวัดลพบุรี</v>
-      </c>
-      <c r="H50" t="str">
-        <v/>
-      </c>
-      <c r="I50" t="str">
-        <v/>
-      </c>
-      <c r="J50" t="str">
-        <v/>
-      </c>
       <c r="K50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>฿</v>
+      </c>
+      <c r="L50" t="str">
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%A1%E0%B8%99%E0%B8%B9%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%94%E0%B8%B7%E0%B9%88%E0%B8%A1-%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B9%81%E0%B8%9F-%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%99%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94A4%E2%9A%A1%EF%B8%8F%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%83%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%94%E0%B8%B5-%E2%98%95%EF%B8%8F-i.927679922.22845282143?sp_atk=83472a4f-34e0-4b2c-81c4-2242c4118297&amp;xptdk=83472a4f-34e0-4b2c-81c4-2242c4118297</v>
+        <v>https://shopee.co.th/Steam-Wallet-TH-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-1000-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.21657625578?sp_atk=15b1fdc6-db83-4d48-9cec-4465a72d3072&amp;xptdk=15b1fdc6-db83-4d48-9cec-4465a72d3072</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lhyrm7vu1voj9c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-oz2hkrvy84iv30_tn</v>
       </c>
       <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Steam Wallet TH มูลค่า 1000 บาท</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>1,130</v>
+      </c>
+      <c r="H51" t="str">
+        <v>ขายแล้ว 282 ชิ้น</v>
+      </c>
+      <c r="I51" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="J51" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D51" t="str">
-        <v>🔥ป้ายเมนูเครื่องดื่ม ป้ายกาแฟ ป้ายชานม ขนาดA4⚡️เคลือบใสกันน้ำอย่างดี ☕️</v>
-      </c>
-      <c r="E51" t="str">
-        <v>59</v>
-      </c>
-      <c r="F51" t="str">
-        <v>ขายแล้ว 2.5พัน ชิ้น</v>
-      </c>
-      <c r="G51" t="str">
-        <v>จังหวัดนนทบุรี</v>
-      </c>
-      <c r="H51" t="str">
-        <v/>
-      </c>
-      <c r="I51" t="str">
-        <v/>
-      </c>
-      <c r="J51" t="str">
-        <v/>
-      </c>
       <c r="K51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/%F0%9F%8C%BB-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%AD%E0%B8%B4%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4-%F0%9F%94%A5-%F0%9F%94%AE%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%96%E0%B8%B9%E0%B8%81-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B8%AB%E0%B8%A1%E0%B8%94%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B8%B8%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99-%F0%9F%92%93-i.84113636.17821137475?sp_atk=7f047501-4497-4f96-802e-ea731212ca5c&amp;xptdk=7f047501-4497-4f96-802e-ea731212ca5c</v>
+        <v>https://shopee.co.th/%E3%80%90AS-NA-EU%E3%80%91Genshin-Impa'ct-%E2%9E%82-i.365737320.23085987414?sp_atk=02328502-fdde-43f0-ba03-44c07c2dee16&amp;xptdk=02328502-fdde-43f0-ba03-44c07c2dee16</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-fqsxrk6r3qlv55_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lpy71bdh8hyca8_tn</v>
       </c>
       <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v>【AS/NA/EU】Genshin Impa'ct ➂</v>
+      </c>
+      <c r="F52" t="str">
+        <v>-</v>
+      </c>
+      <c r="G52" t="str">
+        <v>60</v>
+      </c>
+      <c r="H52" t="str">
+        <v>ขายแล้ว 881 ชิ้น</v>
+      </c>
+      <c r="I52" t="str">
+        <v>จังหวัดชลบุรี</v>
+      </c>
+      <c r="J52" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D52" t="str">
-        <v>🌻 สติ๊กเกอร์ไลน์ ธีมไลน์ เมโลดี้ไลน์ อิโมจิ 🔥 🔮สติ๊กเกอร์ไลน์ราคาถูก ไม่มีวันหมดอายุการใช้งาน 💓</v>
-      </c>
-      <c r="E52" t="str">
-        <v>25</v>
-      </c>
-      <c r="F52" t="str">
-        <v>ขายแล้ว 514.9พัน ชิ้น</v>
-      </c>
-      <c r="G52" t="str">
-        <v>จังหวัดเลย</v>
-      </c>
-      <c r="H52" t="str">
-        <v>-</v>
-      </c>
-      <c r="I52" t="str">
+      <c r="K52" t="str">
         <v>฿</v>
       </c>
-      <c r="J52" t="str">
-        <v>75</v>
-      </c>
-      <c r="K52" t="str">
-        <v/>
+      <c r="L52" t="str">
+        <v>300</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/HOP-Card-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%B4%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%97%E0%B8%A3%E0%B8%AD%E0%B8%99%E0%B8%B4%E0%B8%81%E0%B8%AA%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%88%E0%B8%B3%E0%B8%99%E0%B8%A7%E0%B8%99-3-%E0%B9%83%E0%B8%9A-(%E0%B9%83%E0%B8%99%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%A1%E0%B8%B5%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%9A%E0%B8%A5%E0%B8%B0-40-%E0%B8%9A%E0%B8%B2%E0%B8%97)-i.1059543248.13599151205?sp_atk=dd25ae94-917d-44eb-b6dd-62592b287311&amp;xptdk=dd25ae94-917d-44eb-b6dd-62592b287311</v>
+        <v>https://shopee.co.th/Steam-Wallet-TH-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-50-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.22002217375?sp_atk=a8185e2c-0625-4fe6-9111-12b3b328b8aa&amp;xptdk=a8185e2c-0625-4fe6-9111-12b3b328b8aa</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-ll91yuv32nn086_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-5ryu8tkt84iv2a_tn</v>
       </c>
       <c r="C53" t="str">
         <v/>
       </c>
       <c r="D53" t="str">
-        <v>HOP Card บัตรโดยสารอิเล็กทรอนิกส์แบบเติมเงิน จำนวน 3 ใบ (ในบัตรมีมูลค่าใบละ 40 บาท)</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E53" t="str">
-        <v>180</v>
+        <v>Steam Wallet TH มูลค่า 50 บาท</v>
       </c>
       <c r="F53" t="str">
-        <v>ขายแล้ว 159 ชิ้น</v>
+        <v/>
       </c>
       <c r="G53" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>60</v>
       </c>
       <c r="H53" t="str">
-        <v/>
+        <v>ขายแล้ว 409 ชิ้น</v>
       </c>
       <c r="I53" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J53" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-50%E0%B8%BF-i.3753265.24156804870?sp_atk=770c99d4-c907-4eed-a081-b7e16b4b0449&amp;xptdk=770c99d4-c907-4eed-a081-b7e16b4b0449</v>
+        <v>https://shopee.co.th/(%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B9%82%E0%B8%8B%E0%B8%94%E0%B8%B2)-%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%A1%E0%B8%99%E0%B8%B9%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B9%82%E0%B8%8B%E0%B8%94%E0%B8%B2-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-A4-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%83%E0%B8%AA%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-i.26544836.18124976178?sp_atk=83521bf1-4ce2-431c-b70b-7300645630f0&amp;xptdk=83521bf1-4ce2-431c-b70b-7300645630f0</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lq50xuzweivufe_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-lgp1shrqwq3s0b_tn</v>
       </c>
       <c r="C54" t="str">
-        <v/>
+        <v>-48%</v>
       </c>
       <c r="D54" t="str">
-        <v>ใช้เติมเงิน ราคา 50฿</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v>68</v>
+        <v>(น้ำผลไม้/โซดา) ป้ายเมนูน้ำผลไม้ โซดา น้ำผลไม้ปั่น ขนาด A4 เคลือบใสแข็ง</v>
       </c>
       <c r="F54" t="str">
-        <v>ขายแล้ว 1 ชิ้น</v>
+        <v>฿120</v>
       </c>
       <c r="G54" t="str">
-        <v>จังหวัดชัยนาท</v>
+        <v>62</v>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>ขายแล้ว 1.6พัน ชิ้น</v>
       </c>
       <c r="I54" t="str">
-        <v/>
+        <v>จังหวัดสตูล</v>
       </c>
       <c r="J54" t="str">
         <v/>
       </c>
       <c r="K54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-RAZER-GOLD-PIN-TH-50%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.17616401975?sp_atk=0f26df3b-9545-49e6-8f0b-5269ae52f8f2&amp;xptdk=0f26df3b-9545-49e6-8f0b-5269ae52f8f2</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%95%E0%B9%89%E0%B8%99-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%94%E0%B8%82%E0%B8%AD%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%99%E0%B8%B2%E0%B8%A1%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%AA%E0%B8%B0%E0%B8%AA%E0%B8%A1%E0%B8%84%E0%B8%B0%E0%B9%81%E0%B8%99%E0%B8%99-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%94%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B9%86-i.32593708.23651113483?sp_atk=661d2c72-7647-42fa-857c-5e6eb6f7c34e&amp;xptdk=661d2c72-7647-42fa-857c-5e6eb6f7c34e</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/5faeb3f76d10f257bbe93d2aa10f53ed_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul2-lkcmib8zj88rd4_tn</v>
       </c>
       <c r="C55" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D55" t="str">
-        <v>บัตร RAZER GOLD PIN TH 50บาท</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E55" t="str">
-        <v>69</v>
+        <v>เริ่มต้น 1 บาท รับปริ้นการ์ดขอบคุณลูกค้า นามบัตร บัตรสะสมคะแนน การ์ดต่างๆ</v>
       </c>
       <c r="F55" t="str">
-        <v>ขายแล้ว 3พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G55" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="H55" t="str">
-        <v/>
+        <v>ขายแล้ว 2.1พัน ชิ้น</v>
       </c>
       <c r="I55" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="J55" t="str">
         <v/>
       </c>
       <c r="K55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>฿</v>
+      </c>
+      <c r="L55" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/%E0%B9%82%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B9%8C-%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-10-%E0%B8%A3%E0%B8%B9%E0%B8%9B-(180-%E0%B9%81%E0%B8%81%E0%B8%A3%E0%B8%A1-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AA)-%E0%B8%AA%E0%B8%B2%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B8%96%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B8%97%E0%B8%B3%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%A3%E0%B8%B9%E0%B8%9B-i.312117956.22476060824?sp_atk=7462f29a-fd05-4110-be17-08e187d15bd8&amp;xptdk=7462f29a-fd05-4110-be17-08e187d15bd8</v>
+        <v>https://shopee.co.th/%E3%80%90AS-NA-EU%E3%80%91Genshin-Impa'ct-%E2%9E%80-i.365737320.24900467858?sp_atk=8eca3032-b936-42b1-bfca-09fcee2a25aa&amp;xptdk=8eca3032-b936-42b1-bfca-09fcee2a25aa</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-lk524c12k66h44_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lpy71bdh5otg1f_tn</v>
       </c>
       <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v>【AS/NA/EU】Genshin Impa'ct ➀</v>
+      </c>
+      <c r="F56" t="str">
+        <v>-</v>
+      </c>
+      <c r="G56" t="str">
+        <v>102</v>
+      </c>
+      <c r="H56" t="str">
+        <v>ขายแล้ว 2.1พัน ชิ้น</v>
+      </c>
+      <c r="I56" t="str">
+        <v>จังหวัดชลบุรี</v>
+      </c>
+      <c r="J56" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="D56" t="str">
-        <v>โพลารอยด์ ขั้นต่ำ 10 รูป (180 แกรม กันน้ำ ไม่แถมซองใส) สามารถส่งรูปภาพมาให้ร้านทำได้ทุกรูป</v>
-      </c>
-      <c r="E56" t="str">
-        <v>1</v>
-      </c>
-      <c r="F56" t="str">
-        <v>ขายแล้ว 19.6พัน ชิ้น</v>
-      </c>
-      <c r="G56" t="str">
-        <v>จังหวัดนนทบุรี</v>
-      </c>
-      <c r="H56" t="str">
-        <v>-</v>
-      </c>
-      <c r="I56" t="str">
+      <c r="K56" t="str">
         <v>฿</v>
       </c>
-      <c r="J56" t="str">
-        <v>3</v>
-      </c>
-      <c r="K56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-8ebdd990fd3e438d3171bc0e9098362c</v>
+      <c r="L56" t="str">
+        <v>510</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/-%E2%9B%85-%F0%9F%8C%88%E0%B9%82%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B9%8C-1-%E0%B8%9A%E0%B8%B2%E0%B8%97%F0%9F%8E%AA-%F0%9F%8D%B7%F0%9F%8C%BC-%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B9%82%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B9%8C%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86%E0%B9%86-2x3-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A7%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%A3%E0%B8%B9%E0%B8%9B--i.9323619.12175689628?sp_atk=8da0a1b8-27b6-4c42-b48b-bab5018c201e&amp;xptdk=8da0a1b8-27b6-4c42-b48b-bab5018c201e</v>
+        <v>https://shopee.co.th/FMCG-Clubs-Campaign-Package-100-THB-i.175707560.21667572217?sp_atk=5f5d25ec-f74d-4dfe-a945-f364e2f4225d&amp;xptdk=5f5d25ec-f74d-4dfe-a945-f364e2f4225d</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/5728a668e6dc9931dd23379173ad3c6f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-4pr6q6tc7tkv6f_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D57" t="str">
-        <v>[⛅ 🌈โพลารอยด์ 1 บาท🎪 ]🍷🌼 รูปโพลารอยด์น่ารักๆๆ 2x3 นิ้ว [แถมซองแก้วทุกรูป ]</v>
+        <v/>
       </c>
       <c r="E57" t="str">
-        <v>1</v>
+        <v>FMCG Clubs Campaign - Package 100 THB</v>
       </c>
       <c r="F57" t="str">
-        <v>ขายแล้ว 20.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>100</v>
       </c>
       <c r="H57" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 347.3พัน ชิ้น</v>
       </c>
       <c r="I57" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J57" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="K57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%AD%E0%B8%9E%E0%B8%9E%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%A1%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B1%E0%B8%94-hd-4k-by-grizzzly-i.273637097.22458486877?sp_atk=8e590439-2e2c-43dc-b8f2-4c8ca796c3b3&amp;xptdk=8e590439-2e2c-43dc-b8f2-4c8ca796c3b3</v>
+        <v>https://shopee.co.th/%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-PTT-(%E0%B9%83%E0%B8%9A%E0%B8%A5%E0%B8%B0-500-2-000)-%E0%B8%9B%E0%B8%95%E0%B8%97.-i.91842644.5576989321?sp_atk=fd6d878d-ea72-4d89-8c5d-ca607951a34d&amp;xptdk=fd6d878d-ea72-4d89-8c5d-ca607951a34d</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-ln2lg7wmiljndd_tn</v>
+        <v>https://down-th.img.susercontent.com/file/1e1c0bb299054518f5169885ec8fe846_tn</v>
       </c>
       <c r="C58" t="str">
         <v/>
       </c>
       <c r="D58" t="str">
-        <v>แอพพรีเมียม ความชัด hd 4k by grizzzly</v>
+        <v/>
       </c>
       <c r="E58" t="str">
-        <v>39</v>
+        <v>บัตรเติมน้ำมัน PTT (ใบละ 500-2,000) ปตท.</v>
       </c>
       <c r="F58" t="str">
-        <v>ขายแล้ว 274 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G58" t="str">
-        <v>จังหวัดพระนครศรีอยุธยา</v>
+        <v>1,040</v>
       </c>
       <c r="H58" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 2.5พัน ชิ้น</v>
       </c>
       <c r="I58" t="str">
+        <v>จังหวัดกรุงเทพมหานคร</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
         <v>฿</v>
       </c>
-      <c r="J58" t="str">
-        <v>195</v>
-      </c>
-      <c r="K58" t="str">
-        <v/>
+      <c r="L58" t="str">
+        <v>2,080</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%98%E0%B8%B5%E0%B8%A1%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B9%80%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%94%E0%B8%B5%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D-%E2%9D%8C%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%AB%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%8D%E2%9D%8C-i.818829125.18877100524?sp_atk=fca3187b-4fc3-4b39-ba2c-ec73c122e9cf&amp;xptdk=fca3187b-4fc3-4b39-ba2c-ec73c122e9cf</v>
+        <v>https://shopee.co.th/Razer-Gold-PIN-50-THB-i.326412522.18795195727?sp_atk=433e00d6-7d4d-4830-9906-c948d9304d03&amp;xptdk=433e00d6-7d4d-4830-9906-c948d9304d03</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lprkw7ulv3s463_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnzh19m1zrqo65_tn</v>
       </c>
       <c r="C59" t="str">
         <v/>
       </c>
       <c r="D59" t="str">
-        <v>สติเกอร์ ธีมไลน์ เมโลดี้ ส่งเป็นของขวัญ ❌ไม่ขายเหรียญ❌</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>25</v>
+        <v>Razer Gold PIN 50 THB</v>
       </c>
       <c r="F59" t="str">
-        <v>ขายแล้ว 639 ชิ้น</v>
+        <v/>
       </c>
       <c r="G59" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>53</v>
       </c>
       <c r="H59" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 19 ชิ้น</v>
       </c>
       <c r="I59" t="str">
-        <v>฿</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="J59" t="str">
-        <v>75</v>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/Steam-Wallet-TH-%E0%B8%A1%E0%B8%B9%E0%B8%A5%E0%B8%84%E0%B9%88%E0%B8%B2-200-%E0%B8%9A%E0%B8%B2%E0%B8%97-i.617251000.21157624416?sp_atk=53cc767d-e36e-4cd7-bd19-8a569e767ba4&amp;xptdk=53cc767d-e36e-4cd7-bd19-8a569e767ba4</v>
+        <v>https://shopee.co.th/-OS-LT-Shopee-Mall-Acceleration-Program-i.175707560.15495817020?sp_atk=9ea6e7d4-3e96-4a0f-8c4b-c20e72aa11d7&amp;xptdk=9ea6e7d4-3e96-4a0f-8c4b-c20e72aa11d7</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-kois601w84ivaa_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-paexofr944kv25_tn</v>
       </c>
       <c r="C60" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D60" t="str">
-        <v>Steam Wallet TH มูลค่า 200 บาท</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>230</v>
+        <v>[OS-LT] Shopee Mall  Acceleration Program</v>
       </c>
       <c r="F60" t="str">
-        <v>ขายแล้ว 339 ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="G60" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>5,000</v>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>ขายแล้ว 420 ชิ้น</v>
       </c>
       <c r="I60" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J60" t="str">
         <v/>
       </c>
       <c r="K60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>฿</v>
+      </c>
+      <c r="L60" t="str">
+        <v>15,000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C%E0%B8%95%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%A8%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%86-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%81%E0%B8%99%E0%B9%89%E0%B8%A7-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%81%E0%B8%99%E0%B9%89%E0%B8%A7-i.143769517.16587339372?sp_atk=7b6dc214-f25f-498c-9397-93d8a9485291&amp;xptdk=7b6dc214-f25f-498c-9397-93d8a9485291</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B9%E0%B8%9B%E0%B8%AA%E0%B8%B5-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-4x6-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-(10-%E0%B9%83%E0%B8%9A)-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-i.97128090.10711842467?sp_atk=17c9c4f2-da3c-4be3-b0fd-01b3d9872321&amp;xptdk=17c9c4f2-da3c-4be3-b0fd-01b3d9872321</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-s0sn93zw64lv63_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b3b66ba971411cc2f2985a1b563ea0ed_tn</v>
       </c>
       <c r="C61" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D61" t="str">
-        <v>สติกเกอร์ไลน์ต่างประเทศถูกสุดๆ ไม่มีไม่ได้แน้ว ไม่มีไม่ได้แน้ว</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E61" t="str">
-        <v>5</v>
+        <v>อัดรูปสี ขนาด 4x6 นิ้ว (10 ใบ) ราคาพิเศษ</v>
       </c>
       <c r="F61" t="str">
-        <v>ขายแล้ว 341 ชิ้น</v>
+        <v/>
       </c>
       <c r="G61" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>30</v>
       </c>
       <c r="H61" t="str">
-        <v>-</v>
+        <v>ขายแล้ว 6.7พัน ชิ้น</v>
       </c>
       <c r="I61" t="str">
-        <v>฿</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="J61" t="str">
-        <v>20</v>
+        <v/>
       </c>
       <c r="K61" t="str">
+        <v/>
+      </c>
+      <c r="L61" t="str">
         <v/>
       </c>
     </row>
